--- a/events/2022-09-14/slides/pwgen.xlsx
+++ b/events/2022-09-14/slides/pwgen.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\proj\utelecon.github.io\events\2022-09-14\slides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB9AA0-899D-4975-A305-A3E14281E02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB0E1D0-2327-4225-9DB1-BB2FACD7BE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="1128" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
-    <sheet name="英数字のみ" sheetId="4" r:id="rId2"/>
-    <sheet name="記号含む" sheetId="5" r:id="rId3"/>
+    <sheet name="パスワード生成" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,45 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
-  <si>
-    <t>文字種類</t>
-    <rPh sb="0" eb="2">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15文字</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30文字</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>45文字</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60文字</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>このファイルは自分のPCにダウンロードして使ってください</t>
     <rPh sb="7" eb="9">
@@ -82,10 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ0123456789#$%&amp;()*+,-./:;&lt;=&gt;?@[]^_{|}~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「文字種類」の右のある文字種から指定された文字数をランダムに選んで文字列（乱数パスワード）を生成します。</t>
     <rPh sb="1" eb="3">
       <t>モジ</t>
@@ -236,11 +193,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwxyzABCDEFGHIJKLMNOPQRSTUVWXYZ0123456789</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このファイルの適当なセルに変更を施すたびに上記が更新されます(空のセルでDELを押しても変更されます)</t>
+    <t>このファイルの適当なセルに変更を施すたびに上記が更新されます(空のセルでdeleteキーでもOK)</t>
     <rPh sb="7" eb="9">
       <t>テキトウ</t>
     </rPh>
@@ -256,55 +209,98 @@
     <rPh sb="24" eb="26">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="31" eb="32">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英大文字</t>
+  </si>
+  <si>
+    <t>英小文字</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>記号</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWXYZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#$%&amp;()*+,-/:;&lt;=&gt;?@[]^_{|}~</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16文字</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英数字</t>
+    <rPh sb="0" eb="3">
+      <t>エイスウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英字</t>
+    <rPh sb="0" eb="2">
+      <t>エイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021.09.18 UTokyo Account用に英大文字、小文字、数字、記号を含めたパスワードを生成するように変更</t>
+    <rPh sb="25" eb="26">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>エイオオモジ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
       <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文字種類のところで使う文字を設定することができます。記号を含めなくてはいけないときなど、適宜調整してください</t>
-    <rPh sb="0" eb="4">
-      <t>モジシュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <t>12文字</t>
+    <rPh sb="2" eb="4">
       <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テキギ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>チョウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>8文字</t>
     <rPh sb="1" eb="3">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12文字</t>
-    <rPh sb="2" eb="4">
       <t>モジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -314,7 +310,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +326,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -339,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -348,38 +352,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -394,13 +376,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -754,32 +736,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -789,11 +776,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{986480AE-1B3B-4DF5-A917-B4814A508D3D}">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F421D494-5D67-4BEF-908F-119DB2475593}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -801,238 +788,153 @@
     <col min="2" max="2" width="112.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1">
-        <f>LEN(B1)</f>
-        <v>62</v>
+        <f t="shared" ref="C1:C3" si="0">LEN(B1)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>G4lVFkbr</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">MID(C1,RANDBETWEEN(1,62),1)</f>
-        <v/>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>9I6yaJHP</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>Se5IX78qI4VA</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <f>LEN(B4)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>B9MEQ0wshzQ1</v>
+        <v>18</v>
+      </c>
+      <c r="B5" t="str">
+        <f>_xlfn.CONCAT(B1:B2)</f>
+        <v>ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C11" si="1">LEN(B5)</f>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>s4Zmvy36CDzCbFl</v>
+        <v>17</v>
+      </c>
+      <c r="B6" t="str">
+        <f>_xlfn.CONCAT(B5,B3)</f>
+        <v>ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz123456789</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>NcdUt5jxPCvuOzZRiRsFVvn2uRPfPN</v>
-      </c>
-      <c r="C7" t="str">
-        <f ca="1">MID(C2,RANDBETWEEN(1,62),1)</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT(B6,B4)</f>
+        <v>ABCDEFGHIJKLMNOPQRSTUVWXYZabcdefghijklmnopqrstuvwxyz123456789#$%&amp;()*+,-/:;&lt;=&gt;?@[]^_{|}~</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>r9kuDsm3APCkd9KgSdINI0fNT6Uht2wr7YagagquyShlV</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$2,RANDBETWEEN(1,$C$2),1)&amp;MID($B$3,RANDBETWEEN(1,$C$3),1)&amp;MID($B$4,RANDBETWEEN(1,$C$4),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)</f>
+        <v>Jo7,DdOC</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>oXPM2vxsbPXezFEra76WLVAWkR217G7fY5iUC1eq0hBYRHSfyB7YjPbU8x0h</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>5</v>
+        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$2,RANDBETWEEN(1,$C$2),1)&amp;MID($B$3,RANDBETWEEN(1,$C$3),1)&amp;MID($B$4,RANDBETWEEN(1,$C$4),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)</f>
+        <v>La6%xWCt</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$2,RANDBETWEEN(1,$C$2),1)&amp;MID($B$3,RANDBETWEEN(1,$C$3),1)&amp;MID($B$4,RANDBETWEEN(1,$C$4),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)</f>
+        <v>Ck1_dOPKMABp</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" ref="B9:B11" ca="1" si="2">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$2,RANDBETWEEN(1,$C$2),1)&amp;MID($B$3,RANDBETWEEN(1,$C$3),1)&amp;MID($B$4,RANDBETWEEN(1,$C$4),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)&amp;MID($B$5,RANDBETWEEN(1,$C$5),1)</f>
+        <v>Zt5$GRRtYgaNawiR</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95C0996-354A-493A-94F5-2EBB109F92CF}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="112.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1">
-        <f>LEN(B1)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="1" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>?3ZkkS,O</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">MID(C1,RANDBETWEEN(1,62),1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>nZt.LAwr</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>W5rS:B.=p7oy</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>SGY&lt;-.-6M~NT</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>fW7ppZ6j8arjCyQ</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>Y5ZR5Eu%~Jb$)Cscz+Cc[XdbsVI10s</v>
-      </c>
-      <c r="C7" t="str">
-        <f ca="1">MID(C2,RANDBETWEEN(1,62),1)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>nhM+agY*4|l*rJVi%KzS^1z*S;=6}B-lt%dV;E^ypT^cz</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="str">
-        <f ca="1">MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)&amp;MID($B$1,RANDBETWEEN(1,$C$1),1)</f>
-        <v>6xs_|wXbx@1ZIYo^bsYrh}y&gt;A:pJA{y](v3fjeJ@Y~XLJ2P#}~4B7lobQ&lt;q/</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
